--- a/dados_do_paciente.xlsx
+++ b/dados_do_paciente.xlsx
@@ -450,13 +450,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>708</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dados_do_paciente.xlsx
+++ b/dados_do_paciente.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,38 +424,36 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Position</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Strength Peak</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Development of Strength</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Decline Rate</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dados_do_paciente.xlsx
+++ b/dados_do_paciente.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,39 +422,113 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Position</t>
-        </is>
+      <c r="A1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t xml:space="preserve">668
+</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">671
+</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">676
+</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">682
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">688
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">692
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">697
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">715
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">732
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">752
+</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/dados_do_paciente.xlsx
+++ b/dados_do_paciente.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UDESC\TCC\Programas\GUIpreliminar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C69E6D2-0311-4B00-ADE4-94F849D3EC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1515" yWindow="-120" windowWidth="27405" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,81 +51,1202 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$A$1:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38888888888888878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61111111111111105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77777777777777768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83333333333333326</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.055555555555556</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5555555555555549</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.944444444444444</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0555555555555549</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.2222222222222219</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2777777777777781</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.3888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.4444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.5555555555555549</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.6111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.7222222222222219</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.7777777777777781</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.9444444444444442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$B$1:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.43</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3482-4641-B35C-5A6CAF3E0C58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="162972287"/>
+        <c:axId val="310048863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="162972287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310048863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="310048863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162972287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39AE1B2-0414-5C80-B84C-1EB0375870BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,130 +1533,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">668
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.38888888888888878</v>
+      </c>
+      <c r="B8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="B9">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.5</v>
+      </c>
+      <c r="B10">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="B11">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="B12">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B13">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="B14">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="B15">
+        <v>13.77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="B16">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="B17">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="B18">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">671
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B19">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.055555555555556</v>
+      </c>
+      <c r="B20">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.1111111111111109</v>
+      </c>
+      <c r="B21">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="B22">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="B23">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.2777777777777779</v>
+      </c>
+      <c r="B24">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="B25">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.3888888888888891</v>
+      </c>
+      <c r="B26">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.444444444444444</v>
+      </c>
+      <c r="B27">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.5</v>
+      </c>
+      <c r="B28">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.5555555555555549</v>
+      </c>
+      <c r="B29">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.6111111111111109</v>
+      </c>
+      <c r="B30">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="B31">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.7222222222222221</v>
+      </c>
+      <c r="B32">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="B33">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="B34">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.8888888888888891</v>
+      </c>
+      <c r="B35">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.944444444444444</v>
+      </c>
+      <c r="B36">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">676
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">682
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">688
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">692
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">697
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">715
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">732
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">752
-</t>
-        </is>
+      <c r="B37">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2.0555555555555549</v>
+      </c>
+      <c r="B38">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="B39">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="B40">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2.2222222222222219</v>
+      </c>
+      <c r="B41">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2.2777777777777781</v>
+      </c>
+      <c r="B42">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="B43">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2.3888888888888888</v>
+      </c>
+      <c r="B44">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2.4444444444444442</v>
+      </c>
+      <c r="B45">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2.5</v>
+      </c>
+      <c r="B46">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2.5555555555555549</v>
+      </c>
+      <c r="B47">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2.6111111111111112</v>
+      </c>
+      <c r="B48">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="B49">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2.7222222222222219</v>
+      </c>
+      <c r="B50">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="B51">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="B52">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="B53">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2.9444444444444442</v>
+      </c>
+      <c r="B54">
+        <v>6.14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>